--- a/01 応募企業/03 ソプラ株式会社/面接内容.xlsx
+++ b/01 応募企業/03 ソプラ株式会社/面接内容.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JobChange\01 応募企業\03 ソプラ株式会社\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2422C1-DBBB-4698-A6F8-4ACFB0D74DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59153E38-2980-4980-BFE0-E1AC80461521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25215" yWindow="-12660" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>相手の質問</t>
     <rPh sb="0" eb="2">
@@ -82,11 +82,11 @@
     <t>電算情報技研で参画された案件について</t>
   </si>
   <si>
+    <t>クレジットカード決済の承認システム開発</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>どのようなことをされていた？</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>クレジットカード決済の承認システム開発</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -205,42 +205,297 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>決まったフォーマットはなかったのですが、作業の効率向上を図れるようなツールを要望されて、自分で調べながら、フィードバックを行い、品質を向上させました。
-現場の</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="23" eb="28">
-      <t>コウリツ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ハカ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ヒンシツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウジョウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ゲンバ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <t>決まったフォーマットはなかったのですが、作業の効率向上を図れるようなツールを要望されて、
+自分で調べながら、フィードバックを行い、品質を向上させました。</t>
+  </si>
+  <si>
+    <t>PGの棚卸しツールです。
+本番環境とテスト環境それぞれにある同名PGのシステム日付を取得し、比較を行い、PGの差異を確認する目的で作成しました。</t>
+  </si>
+  <si>
+    <t>満期・年金保険金支払システム</t>
+  </si>
+  <si>
+    <t>詳細設計、単体テスト、結合テストを担当していました。</t>
+  </si>
+  <si>
+    <t>その現場で使われているフォーマットにデータを読み込ませた後、承認が下りるかどうかを確認するテスト</t>
+  </si>
+  <si>
+    <t>NONSTOPとは何ですか？</t>
+  </si>
+  <si>
+    <t>SQL等で使用する独自のファームウェアです。</t>
+  </si>
+  <si>
+    <t>クレジット精算システム開発</t>
+  </si>
+  <si>
+    <t>基本設計、詳細設計、単体テスト、結合テスト、総合テストを担当していました。</t>
+  </si>
+  <si>
+    <t>業務的にはどのようなシステムですか？</t>
+  </si>
+  <si>
+    <t>デパートの高額決済処理システムです。</t>
+  </si>
+  <si>
+    <t>フルウィル株式会社で参画された案件について</t>
+  </si>
+  <si>
+    <t>運送管理システムのテスト確認</t>
+  </si>
+  <si>
+    <t>ただただテスト確認です。
+実装前のPGが正しく機能するかの確認でした。</t>
+  </si>
+  <si>
+    <t>総テストケース数は？</t>
+  </si>
+  <si>
+    <t>およそ１０００ケースほど
+その内、役割分担して２００ケースほど担当しました。</t>
+  </si>
+  <si>
+    <t>運送管理システムはどのようなシステムですか？</t>
+  </si>
+  <si>
+    <t>システムの概要は詳しく聞いていませんが、送り先と送り元の情報を管理するシステムです。</t>
+  </si>
+  <si>
+    <t>改修の規模は大きかった？</t>
+  </si>
+  <si>
+    <t>かなり大きかったです。</t>
+  </si>
+  <si>
+    <t>単体テスト要因として参画した？</t>
+  </si>
+  <si>
+    <t>そうです。</t>
+  </si>
+  <si>
+    <t>テストの進め方は？</t>
+  </si>
+  <si>
+    <t>テストケースの結果欄通りの結果が出るかどうかの確認で、NGが出た場合は開発担当に報告し、改修を待ったのちに再テストしました。</t>
+  </si>
+  <si>
+    <t>団体保険金支払システムの障害トラブル対応</t>
+  </si>
+  <si>
+    <t>日々の障害トラブルを調査する対応をしておりました。</t>
+  </si>
+  <si>
+    <t>具体的には？</t>
+  </si>
+  <si>
+    <t>本来と違う結果になっているとお客様から確認の依頼が来るので、その調査をしていました。</t>
+  </si>
+  <si>
+    <t>PG改修等は？</t>
+  </si>
+  <si>
+    <t>全くしませんでした。</t>
+  </si>
+  <si>
+    <t>COBOLの経験が多いですが、今後もCOBOLで？</t>
+  </si>
+  <si>
+    <t>今後はWebシステム開発事業に携わっていきたいと考えています。</t>
+  </si>
+  <si>
+    <t>データマート更改対応</t>
+  </si>
+  <si>
+    <t>SQLでDBに問い合わせ後、結果をプログラムに通して、内容が正しいかどうかを確認していました。</t>
+  </si>
+  <si>
+    <t>データマートとは何ですか？</t>
+  </si>
+  <si>
+    <t>申し訳ありません。
+データマートがどのようなものかの説明はできません。</t>
+  </si>
+  <si>
+    <t>今までの経歴からは開発の経験はありますか？</t>
+  </si>
+  <si>
+    <t>一応基本設計を少し、詳細設計も担当経験はありますが、設計書からのプログラム開発はあまり経験がありません。</t>
+  </si>
+  <si>
+    <t>電算情報技研を退職された理由は？</t>
+  </si>
+  <si>
+    <t>自身の障害特性によって業務に支障をきたすことが多く、クローズ就労で働き続けることに不安を感じたからです。</t>
+  </si>
+  <si>
+    <t>どのように支障をきたしていましたか？</t>
+  </si>
+  <si>
+    <t>まず、コミュニケーションが上手く取れませんでした。
+業務中の疑問を質問にすることができず、上長に進捗確認をされて、「なぜ質問をしない？」というやり取りが多かったです。</t>
+  </si>
+  <si>
+    <t>フルウィル株式会社を退職された理由は？</t>
+  </si>
+  <si>
+    <t>業務内容の大半がテスト確認で、将来的にシステムエンジニアとしての成長が難しいと考えたからです。</t>
+  </si>
+  <si>
+    <t>現在は事業所のほうに通所されていますね？</t>
+  </si>
+  <si>
+    <t>コミュニケーションの取り方やWebシステム開発スキルを学んでいます。</t>
+  </si>
+  <si>
+    <t>今後IT業界でのキャリアアップのイメージは？</t>
+  </si>
+  <si>
+    <t>今後は開発業務携わってシステムエンジニアとしてスキルアップしていきたいと考えています。</t>
+  </si>
+  <si>
+    <t>開発言語としてはJavaやPHP？</t>
+  </si>
+  <si>
+    <t>プログラムという意味ではVBAでツールを作成をされていたので、
+経験はあるということでいいでしょうか？</t>
+  </si>
+  <si>
+    <t>そうですね。
+１つ１つは小さいものですが、開発経験はVBAで積むことができたかなと考えています。
+今後は大きく関わっていきたいです。</t>
+  </si>
+  <si>
+    <t>今までで１番大変だった業務は運送管理システムですか？</t>
+  </si>
+  <si>
+    <t>いいえ、最後のデータマートの案件です。</t>
+  </si>
+  <si>
+    <t>何が大変だった？</t>
+  </si>
+  <si>
+    <t>テレワーク主体でしたが、朝から申請が通らなくなる深夜１２時ギリギリまで行って業務を行っていました。</t>
+  </si>
+  <si>
+    <t>あなたの強みを教えてください。</t>
+  </si>
+  <si>
+    <t>何事もストイックにやり遂げることです。
+計画を立てて、着実に最後までやり遂げることが私の強みだと考えています。</t>
+  </si>
+  <si>
+    <t>具体的なエピソードはありますか？</t>
+  </si>
+  <si>
+    <t>特に２社目でテスト確認していた際に、単調なもので量が多かったのですが、品質を落とすことなくやり遂げることができました。</t>
+  </si>
+  <si>
+    <t>今勉強されているPHPで、アプリケーションの開発をされていますか？</t>
+  </si>
+  <si>
+    <t>事業所で出された課題をPHPで作成しました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今までの経歴から、Web系は初めてだと思いますが、
+すんなりできましたか？
+</t>
+  </si>
+  <si>
+    <t>はい
+楽しみながら、勉強することができました。</t>
+  </si>
+  <si>
+    <t>プログラムを作成するのは早いほうですか？</t>
+  </si>
+  <si>
+    <t>はい
+事業所の講師の方からも、早めに習得されていますと言っていただけました。</t>
+  </si>
+  <si>
+    <t>プログラムを作るのは得意ですか？</t>
+  </si>
+  <si>
+    <t>はい
+大学ではゲームプログラミングを専攻しておりまして、そこでプログラムでモノづくりをする楽しさを学べましたので</t>
+  </si>
+  <si>
+    <t>どのあたりが楽しいですか？</t>
+  </si>
+  <si>
+    <t>自分で作って、自分の想定通りに動いたと実感したときが１番楽しいと感じています。</t>
+  </si>
+  <si>
+    <t>今まで経験されてきた仕事でもそうですが、
+色んな方とのコミュニケーションを取っていくことがIT業界では多いと思いますが、
+コミュニケーションを取っていく上で、注意されていることは？</t>
+  </si>
+  <si>
+    <t>口頭だけでコミュニケーションを取らずに、コミュニケーションツールを使用して、
+文字や図を用いて視覚的に分かりやすくなるような質問だったり、コミュニケーションのやり取りをするように心掛けています。</t>
+  </si>
+  <si>
+    <t>文字を使ったコミュニケーションをするようになったきっかけは？</t>
+  </si>
+  <si>
+    <t>自身の障害特性でコミュニケーションが取りにくいと感じていたときに、上長からアドバイスを取り入れたからです。
+多少の改善は見られました。</t>
+  </si>
+  <si>
+    <t>口頭で話すよりは、考えて文章にしたほうが表現はしやすい？</t>
+  </si>
+  <si>
+    <t>そうですね。</t>
+  </si>
+  <si>
+    <t>転職する企業に求めるものは？</t>
+  </si>
+  <si>
+    <t>１つはWebシステム開発を事業にしていることです。
+２つ目に、今後はオープン就労で転職活動をしようと思いましたので、障害者雇用をしていることです。</t>
+  </si>
+  <si>
+    <t>今の事業所での活動時間は？</t>
+  </si>
+  <si>
+    <t>１０時～１５時（内１時間昼休憩）です。</t>
+  </si>
+  <si>
+    <t>何か趣味はありますか？</t>
+  </si>
+  <si>
+    <t>ジムに通って筋力トレーニングをしています。</t>
+  </si>
+  <si>
+    <t>逆質問</t>
+  </si>
+  <si>
+    <t>自分の質問</t>
+  </si>
+  <si>
+    <t>相手の回答</t>
+  </si>
+  <si>
+    <t>今回障害者雇用ということですが、御社では行っている障碍者に対する配慮に関して</t>
+  </si>
+  <si>
+    <t>今回障害者雇用が初めての試みなので、実績がない中でこれといった配慮はないです。</t>
+  </si>
+  <si>
+    <t>今回応募する際に、障害特性をまとめたシートを添付させていただいたのですが、
+その資料に記載している配慮を現場先でしていただけるのでしょうか？</t>
+  </si>
+  <si>
+    <t>弊社ではお客様先常駐の業務形態で、そこに配属される形になります。
+配属先のメンバーとヒアリングを行って、配慮していきたいと考えています。</t>
+  </si>
+  <si>
+    <t>PHPやJava以外に御社でキャッチアップしておくスキルはありますか？</t>
+  </si>
+  <si>
+    <t>弊社ではオープン系のWebシステム開発オンリーになります。
+ほとんどがJavaの案件となります。</t>
   </si>
 </sst>
 </file>
@@ -297,7 +552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +569,20 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -345,8 +612,152 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -359,30 +770,87 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,82 +1135,508 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="51.8125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="117.9375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.5" customWidth="1"/>
+    <col min="2" max="2" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="123.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="180">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14"/>
+    </row>
+    <row r="5" spans="1:2" ht="18.75">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="35.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="18.75">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="52.9">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:2" ht="67.5">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75">
+      <c r="A10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="22.5">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75">
+      <c r="A14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="22.5">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75">
+      <c r="A18" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75">
+      <c r="A19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:2" ht="45">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="22.5">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="22.5">
+      <c r="A24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75">
+      <c r="A26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" ht="18.75">
+      <c r="A27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="22.5">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22.5">
+      <c r="A29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75">
+      <c r="A31" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:2" ht="18.75">
+      <c r="A32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75">
+      <c r="A34" s="9"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:2" ht="18.75">
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+    </row>
+    <row r="36" spans="1:2" ht="18.75">
+      <c r="A36" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75">
+      <c r="A37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="67.5">
+      <c r="A38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75">
+      <c r="A39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75">
+      <c r="A40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75">
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="67.5">
+      <c r="A43" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75">
+      <c r="A44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75">
+      <c r="A47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75">
+      <c r="A48" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="67.5">
+      <c r="A49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45">
+      <c r="A50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45">
+      <c r="A51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75">
+      <c r="A52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="90">
+      <c r="A53" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="45">
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="22.5">
+      <c r="A55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="45">
+      <c r="A56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75">
+      <c r="A57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75">
+      <c r="A58" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+    </row>
+    <row r="60" spans="1:2" ht="18.75">
+      <c r="A60" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="20"/>
+    </row>
+    <row r="61" spans="1:2" ht="18.75">
+      <c r="A61" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="22.5">
+      <c r="A62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45">
+      <c r="A63" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45">
+      <c r="A64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
